--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value528.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value528.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.894533188884758</v>
+        <v>1.294508934020996</v>
       </c>
       <c r="B1">
-        <v>1.281200064332509</v>
+        <v>2.327085971832275</v>
       </c>
       <c r="C1">
-        <v>1.666293108937616</v>
+        <v>2.987038850784302</v>
       </c>
       <c r="D1">
-        <v>1.829169781260214</v>
+        <v>3.439496040344238</v>
       </c>
       <c r="E1">
-        <v>2.132241584953746</v>
+        <v>1.472819447517395</v>
       </c>
     </row>
   </sheetData>
